--- a/biology/Botanique/Corne-de-cerf_didyne/Corne-de-cerf_didyne.xlsx
+++ b/biology/Botanique/Corne-de-cerf_didyne/Corne-de-cerf_didyne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lepidium didymum (la corne-de-cerf didyme) est une espèce de plantes herbacées de la famille des Brassicacées. Cette espèce d'origine sud-américaine est réputée invasive.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coronopus didymus
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lepidium didymum est originaire d'Amérique du Sud et introduite sur tous les continents[2]. Cette espèce devenue cosmopolite continue à étendre sa distribution[3] ; elle est considérée comme envahissante à Saint-Pierre et Miquelon où un arrêté préfectoral a été pris pour limiter sa propagation[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lepidium didymum est originaire d'Amérique du Sud et introduite sur tous les continents. Cette espèce devenue cosmopolite continue à étendre sa distribution ; elle est considérée comme envahissante à Saint-Pierre et Miquelon où un arrêté préfectoral a été pris pour limiter sa propagation.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans son aire d'indigénat, Lepidium didymum est consommé comme légume et utilisé comme plante médicinale pour traiter diverses affections (entre autres cancer, gangrène, hémorroïdes)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son aire d'indigénat, Lepidium didymum est consommé comme légume et utilisé comme plante médicinale pour traiter diverses affections (entre autres cancer, gangrène, hémorroïdes).
 </t>
         </is>
       </c>
